--- a/source/excel/all_stamps.xlsx
+++ b/source/excel/all_stamps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oleh.bakumenko\PythonWorkspace\PycharmProjects\sandbox\harz\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oleh.bakumenko\PythonWorkspace\PycharmProjects\harz_tsp\source\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32E140-3D32-4138-BCC5-94BC866AFF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225F206F-2501-4AE3-A8B4-15454351CAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1418,12 +1418,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1453,11 +1459,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1763,24 +1770,24 @@
   <dimension ref="A1:L223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,45 +1825,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>51.841648999999997</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10.5799757</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>555</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1894,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1970,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2008,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2046,45 +2053,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>51.831870000000002</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>10.668189999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>551</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2122,45 +2129,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>51.800538500000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>10.6157828</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1124</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2426,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2464,83 +2471,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>51.751825099999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>10.632450499999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>739</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>51.820366700000001</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>10.572983300000001</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>655</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2578,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2654,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2730,83 +2737,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>51.825275400000002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>10.6883964</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>522</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>51.817825300000003</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>10.7078852</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>508</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2882,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2920,45 +2927,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>51.846336800000003</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>10.6631266</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>444</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3110,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3186,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3224,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3262,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3338,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3376,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3414,45 +3421,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>51.618639999999999</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>10.50431</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>430</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3528,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3642,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3718,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3794,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3832,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3870,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3946,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3984,45 +3991,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>51.638409799999998</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>10.630532799999999</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>460</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4136,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4174,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4250,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4440,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4478,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4516,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4592,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4630,45 +4637,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>51.737387599999998</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>10.565886900000001</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>751</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4744,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4782,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4858,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4896,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4972,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5010,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5048,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5086,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5162,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5200,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5238,45 +5245,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>51.890083300000001</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>10.41905</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>354</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5314,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5390,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5428,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5504,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5542,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5580,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5618,45 +5625,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>51.635016499999999</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>10.404400000000001</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>370</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5694,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5732,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5770,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5808,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5846,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5884,159 +5891,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A109">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>51.914839999999998</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>10.467750000000001</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>342</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>51.912633300000003</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>10.335716700000001</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>315</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>51.900582200000002</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>10.382224799999999</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>300</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>51.90652</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>10.405250000000001</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>456</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6112,197 +6119,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A115">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>51.888480000000001</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>10.426679999999999</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>635</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>51.640800800000001</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>10.472213</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>523</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>51.867247800000001</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>10.474078199999999</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>342</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1</v>
+      </c>
+      <c r="L117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>51.871832900000001</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>10.481389999999999</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>479</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2">
+        <v>1</v>
+      </c>
+      <c r="L118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>51.868797999999998</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>10.485785999999999</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>595</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6340,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6378,121 +6385,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <v>51.871670000000002</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="2">
         <v>10.566470000000001</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
         <v>461</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A123">
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>51.875316699999999</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>10.592583299999999</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <v>545</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
         <v>51.716266599999997</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>10.5624</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <v>488</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6530,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6568,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6606,121 +6613,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>51.797911499999998</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>10.3888812</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
         <v>592</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A129">
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>51.785730000000001</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>10.37743</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>598</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="H129" s="2">
+        <v>1</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>51.81926</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>10.22503</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>392</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
+      <c r="L130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6758,45 +6765,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A132">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>51.792083300000002</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>10.275733300000001</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>570</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6834,349 +6841,349 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A134">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>51.803466700000001</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>10.4878333</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <v>621</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="H134" s="2">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2">
+        <v>1</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>51.785440000000001</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>10.46754</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <v>715</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A136">
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>51.790439999999997</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>10.503696</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
         <v>895</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A137">
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>51.787716699999997</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>10.5864166</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
         <v>899</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="L137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="H137" s="2">
+        <v>1</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>51.776060000000001</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="2">
         <v>10.351000000000001</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2">
         <v>561</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A139">
+      <c r="H138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>51.766766699999998</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>10.3552333</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
         <v>611</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A140">
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+      <c r="K139" s="2">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>51.766316600000003</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>10.3138334</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
         <v>561</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="H140" s="2">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>51.746204400000003</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="2">
         <v>10.3014774</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
         <v>470</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="H141" s="2">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1</v>
+      </c>
+      <c r="L141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>51.784750000000003</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="2">
         <v>10.286182999999999</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
         <v>561</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H142" s="2">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7214,45 +7221,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A144">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>51.723220300000001</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>10.336262</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="2">
         <v>540</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7290,45 +7297,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A146">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>51.777099999999997</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="2">
         <v>10.3878333</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
         <v>600</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7366,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7404,83 +7411,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A149">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>51.723109999999998</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>10.58188</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <v>620</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>51.795133300000003</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>10.4756666</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
         <v>600</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7518,83 +7525,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A152">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>51.62885</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="2">
         <v>10.4089332</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
         <v>372</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A153">
+      <c r="H152" s="2">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>51.643416700000003</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>10.442599899999999</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
         <v>479</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7632,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7670,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7708,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7746,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7784,197 +7791,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>51.638286299999997</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="2">
         <v>10.5249516</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="2">
         <v>560</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A160">
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>51.656531899999997</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="2">
         <v>10.5540825</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
         <v>705</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H160">
-        <v>0</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>1</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A161">
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>51.642256199999999</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="2">
         <v>10.610766999999999</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
         <v>549</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A162">
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>51.6309197</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="2">
         <v>10.5427079</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="2">
         <v>625</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="H162">
-        <v>0</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163">
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>51.628189999999996</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="2">
         <v>10.58487</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="2">
         <v>380</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H163">
-        <v>0</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8012,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8050,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8088,197 +8095,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A167">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>51.580730000000003</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="2">
         <v>10.58385</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="2">
         <v>326</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>1</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A168">
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
+        <v>1</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>51.581069999999997</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="2">
         <v>10.645910000000001</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="2">
         <v>303</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>1</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169">
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2">
+        <v>1</v>
+      </c>
+      <c r="K168" s="2">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>51.7813333</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="2">
         <v>10.580550000000001</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
         <v>878</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H169">
-        <v>0</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>1</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170">
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2">
+        <v>1</v>
+      </c>
+      <c r="K169" s="2">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>51.855683300000003</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="2">
         <v>10.573099900000001</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="2">
         <v>532</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H170">
-        <v>0</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171">
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>51.865016699999998</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="2">
         <v>10.6053166</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="2">
         <v>531</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>1</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2">
+        <v>1</v>
+      </c>
+      <c r="K171" s="2">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8316,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8354,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8392,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8430,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8468,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8506,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8582,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8620,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8658,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8696,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8734,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8772,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8810,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8848,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8886,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8924,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9000,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9038,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9076,45 +9083,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A193">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>51.576885699999998</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="2">
         <v>10.575238000000001</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="2">
         <v>272</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2">
+        <v>0</v>
+      </c>
+      <c r="K193" s="2">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9152,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9190,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9228,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9266,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9304,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9380,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9418,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9456,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9494,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9532,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9570,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9646,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -9684,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9722,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9760,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9798,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9874,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9912,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9950,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9988,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10026,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10064,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10102,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10140,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10178,45 +10185,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A222">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>51.804200000000002</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="2">
         <v>10.5138167</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="2">
         <v>650</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-      <c r="K222">
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2">
+        <v>0</v>
+      </c>
+      <c r="K222" s="2">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10255,6 +10262,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L224">
+    <sortCondition ref="A1:A224"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>